--- a/RF - RNF_ JAME.xlsx
+++ b/RF - RNF_ JAME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\JAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939DE9D0-648A-449F-A237-A8C36C0CABB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1814FA-8BEA-47CD-9306-B18D0028CF91}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7FEFC6A0-3721-4084-909D-CF7F16250173}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="RF" sheetId="1" r:id="rId1"/>
     <sheet name="RNF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>No. de requisito</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Nombre de requisito</t>
   </si>
   <si>
-    <t>Prioridad</t>
-  </si>
-  <si>
     <t>RF3</t>
   </si>
   <si>
@@ -91,12 +88,6 @@
     <t>El administrador podra gestionar el inventario, ingreso y salida de productos</t>
   </si>
   <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>El usuario contara con un apartado para consultar el perfil de su mascota</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>El sistema tendra la capacidad de actualizar la base de datos</t>
   </si>
   <si>
-    <t>El sistema tendra un cifrado para garantizar la seguridad de los datos del usuario</t>
-  </si>
-  <si>
     <t>El sistema tendra un buen rendimiento incluso cuando interactuen varios usuarios a la vez</t>
   </si>
   <si>
@@ -209,6 +197,39 @@
   </si>
   <si>
     <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Escalabilidad</t>
+  </si>
+  <si>
+    <t>Mantenibilidad</t>
+  </si>
+  <si>
+    <t>El sistema tendra un cifrado para garantizar la proteccion de los datos del usuario</t>
+  </si>
+  <si>
+    <t>Usabilidad</t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema tendra acceso a ser actualizaciones e innovaciones </t>
+  </si>
+  <si>
+    <t>Modificabilidad</t>
+  </si>
+  <si>
+    <t>El sistema trendra un reinicio y sera tolerante a fallas de este mismo</t>
+  </si>
+  <si>
+    <t>Portabilidad</t>
+  </si>
+  <si>
+    <t>El sistema debe ser compatible con otros sistemas</t>
+  </si>
+  <si>
+    <t>Compatibilidad</t>
   </si>
 </sst>
 </file>
@@ -330,34 +351,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -376,38 +408,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -724,39 +743,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D363F4-EE26-4E18-91E9-BFC5558E1548}">
-  <dimension ref="B4:K20"/>
+  <dimension ref="B4:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:J12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -764,17 +780,14 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -782,53 +795,44 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -836,53 +840,44 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="1" t="s">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -890,143 +885,119 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1034,33 +1005,9 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="B20:C20"/>
@@ -1074,6 +1021,27 @@
     <mergeCell ref="D16:J16"/>
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="D18:J18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1085,294 +1053,298 @@
   <dimension ref="B4:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:J11"/>
+      <selection activeCell="K15" sqref="K15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="22" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="23"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="4" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:J16"/>
@@ -1384,20 +1356,28 @@
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
